--- a/Laboratorio_3/Tabela-verdade_Controle_RISCV.xlsx
+++ b/Laboratorio_3/Tabela-verdade_Controle_RISCV.xlsx
@@ -628,7 +628,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="84">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -661,10 +661,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -809,60 +805,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -897,22 +849,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -925,10 +865,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -939,14 +875,6 @@
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -961,10 +889,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -973,28 +897,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1007,10 +915,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1146,11 +1050,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="5.46153846153846"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="3" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="5" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="10" min="8" style="2" width="8.35627530364373"/>
@@ -1160,144 +1064,144 @@
     <col collapsed="false" hidden="false" max="14" min="14" style="2" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="7" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1022" min="16" style="2" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="8" width="9"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+    <row r="1" s="14" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="16"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="16"/>
+      <c r="B2" s="0"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="24" t="n">
+      <c r="C3" s="23" t="n">
         <v>11</v>
       </c>
-      <c r="D3" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="16" t="s">
+      <c r="D3" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="8"/>
+      <c r="O3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="24" t="n">
+      <c r="C4" s="23" t="n">
         <v>11</v>
       </c>
-      <c r="D4" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="27" t="n">
+      <c r="D4" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="26" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="2" t="n">
@@ -1308,40 +1212,40 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="24" t="n">
+      <c r="C5" s="23" t="n">
         <v>11</v>
       </c>
-      <c r="D5" s="25" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="27" t="n">
+      <c r="D5" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="26" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="2" t="n">
@@ -1352,40 +1256,40 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="24" t="n">
+      <c r="C6" s="23" t="n">
         <v>11</v>
       </c>
-      <c r="D6" s="25" t="n">
+      <c r="D6" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="27" t="n">
+      <c r="E6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="26" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="2" t="n">
@@ -1396,40 +1300,40 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="24" t="n">
+      <c r="C7" s="23" t="n">
         <v>11</v>
       </c>
-      <c r="D7" s="25" t="n">
+      <c r="D7" s="24" t="n">
         <v>101</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="27" t="n">
+      <c r="E7" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="26" t="n">
         <v>0</v>
       </c>
       <c r="N7" s="2" t="n">
@@ -1440,10 +1344,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="n">
@@ -1452,38 +1356,38 @@
       <c r="D8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="29" t="n">
+      <c r="E8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="28" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="29" t="n">
+      <c r="H8" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L8" s="31" t="n">
+      <c r="L8" s="30" t="n">
         <v>11</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="3" t="n">
@@ -1492,40 +1396,40 @@
       <c r="D9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="29" t="n">
+      <c r="E9" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="29" t="n">
+      <c r="H9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="31" t="n">
+      <c r="L9" s="30" t="n">
         <v>11</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="N9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="8"/>
+      <c r="O9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="3" t="n">
@@ -1534,28 +1438,28 @@
       <c r="D10" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="29" t="n">
+      <c r="E10" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="28" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="29" t="n">
+      <c r="H10" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="31" t="n">
+      <c r="L10" s="30" t="n">
         <v>11</v>
       </c>
       <c r="N10" s="2" t="n">
@@ -1566,10 +1470,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3" t="n">
@@ -1578,28 +1482,28 @@
       <c r="D11" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="29" t="n">
+      <c r="E11" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="28" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="29" t="n">
+      <c r="H11" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L11" s="31" t="n">
+      <c r="L11" s="30" t="n">
         <v>11</v>
       </c>
       <c r="N11" s="2" t="n">
@@ -1610,10 +1514,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3" t="n">
@@ -1622,28 +1526,28 @@
       <c r="D12" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="29" t="n">
+      <c r="E12" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="28" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="29" t="n">
+      <c r="H12" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L12" s="31" t="n">
+      <c r="L12" s="30" t="n">
         <v>11</v>
       </c>
       <c r="N12" s="2" t="n">
@@ -1654,10 +1558,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="3" t="n">
@@ -1666,28 +1570,28 @@
       <c r="D13" s="4" t="n">
         <v>101</v>
       </c>
-      <c r="E13" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="29" t="n">
+      <c r="E13" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="28" t="n">
         <v>1</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="29" t="n">
+      <c r="H13" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K13" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L13" s="31" t="n">
+      <c r="L13" s="30" t="n">
         <v>11</v>
       </c>
       <c r="N13" s="2" t="n">
@@ -1698,10 +1602,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="3" t="n">
@@ -1710,38 +1614,38 @@
       <c r="D14" s="4" t="n">
         <v>101</v>
       </c>
-      <c r="E14" s="30" t="n">
+      <c r="E14" s="29" t="n">
         <v>100000</v>
       </c>
-      <c r="F14" s="29" t="n">
+      <c r="F14" s="28" t="n">
         <v>1</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="29" t="n">
+      <c r="H14" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L14" s="31" t="n">
+      <c r="L14" s="30" t="n">
         <v>11</v>
       </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="3" t="n">
@@ -1750,40 +1654,40 @@
       <c r="D15" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="29" t="n">
+      <c r="E15" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="28" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="29" t="n">
+      <c r="H15" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K15" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L15" s="31" t="n">
+      <c r="L15" s="30" t="n">
         <v>11</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="N15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="8"/>
+      <c r="O15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="3" t="n">
@@ -1792,28 +1696,28 @@
       <c r="D16" s="4" t="n">
         <v>111</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="29" t="n">
+      <c r="E16" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="28" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="29" t="n">
+      <c r="H16" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K16" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L16" s="31" t="n">
+      <c r="L16" s="30" t="n">
         <v>11</v>
       </c>
       <c r="N16" s="2" t="n">
@@ -1824,10 +1728,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="3" t="n">
@@ -1836,28 +1740,28 @@
       <c r="D17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="29" t="s">
+      <c r="E17" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="H17" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="29" t="n">
+      <c r="H17" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="31" t="s">
         <v>15</v>
       </c>
       <c r="N17" s="2" t="n">
@@ -1868,10 +1772,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="3" t="n">
@@ -1880,28 +1784,28 @@
       <c r="D18" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="29" t="n">
+      <c r="E18" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="28" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="29" t="n">
+      <c r="H18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="28" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L18" s="31" t="n">
+      <c r="L18" s="30" t="n">
         <v>0</v>
       </c>
       <c r="N18" s="2" t="n">
@@ -1912,10 +1816,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="3" t="n">
@@ -1924,28 +1828,28 @@
       <c r="D19" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="29" t="n">
+      <c r="E19" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="28" t="n">
         <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="29" t="n">
+      <c r="H19" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="28" t="n">
         <v>1</v>
       </c>
       <c r="K19" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L19" s="31" t="n">
+      <c r="L19" s="30" t="n">
         <v>0</v>
       </c>
       <c r="N19" s="2" t="n">
@@ -1956,10 +1860,10 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="3" t="n">
@@ -1968,36 +1872,36 @@
       <c r="D20" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E20" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="29" t="n">
+      <c r="E20" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="28" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="29" t="n">
+      <c r="H20" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="28" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L20" s="31" t="n">
+      <c r="L20" s="30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="3" t="n">
@@ -2006,36 +1910,36 @@
       <c r="D21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="29" t="n">
+      <c r="E21" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H21" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="29" t="n">
+      <c r="H21" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L21" s="31" t="n">
+      <c r="L21" s="30" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="3" t="n">
@@ -2044,36 +1948,36 @@
       <c r="D22" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E22" s="33" t="n">
+      <c r="E22" s="32" t="n">
         <v>100000</v>
       </c>
-      <c r="F22" s="29" t="n">
+      <c r="F22" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H22" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="29" t="n">
+      <c r="H22" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K22" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L22" s="31" t="n">
+      <c r="L22" s="30" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="3" t="n">
@@ -2082,36 +1986,36 @@
       <c r="D23" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="29" t="n">
+      <c r="E23" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H23" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="29" t="n">
+      <c r="H23" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L23" s="31" t="n">
+      <c r="L23" s="30" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="3" t="n">
@@ -2120,36 +2024,36 @@
       <c r="D24" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E24" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="29" t="n">
+      <c r="E24" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H24" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="29" t="n">
+      <c r="H24" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K24" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L24" s="31" t="n">
+      <c r="L24" s="30" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="3" t="n">
@@ -2158,36 +2062,36 @@
       <c r="D25" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="E25" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="29" t="n">
+      <c r="E25" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H25" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="29" t="n">
+      <c r="H25" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K25" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L25" s="31" t="n">
+      <c r="L25" s="30" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="3" t="n">
@@ -2196,36 +2100,36 @@
       <c r="D26" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E26" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="29" t="n">
+      <c r="E26" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H26" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="29" t="n">
+      <c r="H26" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K26" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L26" s="31" t="n">
+      <c r="L26" s="30" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="3" t="n">
@@ -2234,36 +2138,36 @@
       <c r="D27" s="4" t="n">
         <v>101</v>
       </c>
-      <c r="E27" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="29" t="n">
+      <c r="E27" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H27" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="29" t="n">
+      <c r="H27" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K27" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L27" s="31" t="n">
+      <c r="L27" s="30" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C28" s="3" t="n">
@@ -2272,36 +2176,36 @@
       <c r="D28" s="4" t="n">
         <v>101</v>
       </c>
-      <c r="E28" s="33" t="n">
+      <c r="E28" s="32" t="n">
         <v>100000</v>
       </c>
-      <c r="F28" s="29" t="n">
+      <c r="F28" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H28" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="29" t="n">
+      <c r="H28" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K28" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L28" s="31" t="n">
+      <c r="L28" s="30" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C29" s="3" t="n">
@@ -2310,36 +2214,36 @@
       <c r="D29" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="E29" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="29" t="n">
+      <c r="E29" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H29" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="29" t="n">
+      <c r="H29" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L29" s="31" t="n">
+      <c r="L29" s="30" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C30" s="3" t="n">
@@ -2348,36 +2252,36 @@
       <c r="D30" s="4" t="n">
         <v>111</v>
       </c>
-      <c r="E30" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="29" t="n">
+      <c r="E30" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H30" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="29" t="n">
+      <c r="H30" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K30" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L30" s="31" t="n">
+      <c r="L30" s="30" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="3" t="n">
@@ -2386,36 +2290,36 @@
       <c r="D31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="29" t="n">
+      <c r="E31" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="28" t="n">
         <v>1</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H31" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="29" t="n">
+      <c r="H31" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K31" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="L31" s="31" t="n">
+      <c r="L31" s="30" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="28" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="3" t="n">
@@ -2424,36 +2328,36 @@
       <c r="D32" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E32" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="29" t="n">
+      <c r="E32" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="29" t="n">
+      <c r="H32" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K32" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L32" s="31" t="n">
+      <c r="L32" s="30" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="3" t="n">
@@ -2462,36 +2366,36 @@
       <c r="D33" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E33" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="29" t="n">
+      <c r="E33" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="29" t="n">
+      <c r="H33" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K33" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L33" s="31" t="n">
+      <c r="L33" s="30" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="28" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="3" t="n">
@@ -2500,36 +2404,36 @@
       <c r="D34" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E34" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="29" t="n">
+      <c r="E34" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="29" t="n">
+      <c r="H34" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L34" s="31" t="n">
+      <c r="L34" s="30" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="28" t="s">
         <v>63</v>
       </c>
       <c r="C35" s="3" t="n">
@@ -2538,36 +2442,36 @@
       <c r="D35" s="4" t="n">
         <v>101</v>
       </c>
-      <c r="E35" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="29" t="n">
+      <c r="E35" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="29" t="n">
+      <c r="H35" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K35" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L35" s="31" t="n">
+      <c r="L35" s="30" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="28" t="s">
         <v>63</v>
       </c>
       <c r="C36" s="3" t="n">
@@ -2576,34 +2480,34 @@
       <c r="D36" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="29" t="n">
+      <c r="E36" s="29"/>
+      <c r="F36" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="29" t="n">
+      <c r="H36" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K36" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L36" s="31" t="n">
+      <c r="L36" s="30" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="28" t="s">
         <v>63</v>
       </c>
       <c r="C37" s="3" t="n">
@@ -2612,126 +2516,126 @@
       <c r="D37" s="4" t="n">
         <v>111</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="29" t="n">
+      <c r="E37" s="29"/>
+      <c r="F37" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="29" t="n">
+      <c r="H37" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K37" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L37" s="31" t="n">
+      <c r="L37" s="30" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="24" t="n">
+      <c r="C38" s="23" t="n">
         <v>1100111</v>
       </c>
-      <c r="D38" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="25" t="n">
+      <c r="D38" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="24" t="n">
         <v>11</v>
       </c>
-      <c r="H38" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="25" t="n">
-        <v>10</v>
-      </c>
-      <c r="L38" s="27" t="n">
+      <c r="H38" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="L38" s="26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="36" t="n">
+      <c r="C39" s="35" t="n">
         <v>1101111</v>
       </c>
-      <c r="D39" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="37" t="n">
+      <c r="D39" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="36" t="n">
         <v>11</v>
       </c>
-      <c r="H39" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="37" t="n">
+      <c r="H39" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="36" t="n">
         <v>11</v>
       </c>
-      <c r="L39" s="39" t="s">
+      <c r="L39" s="38" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="31"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
+      <c r="K40" s="0"/>
+      <c r="L40" s="30"/>
     </row>
     <row r="41" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C41" s="3" t="n">
@@ -2740,36 +2644,36 @@
       <c r="D41" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E41" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="29" t="n">
+      <c r="E41" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H41" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="29" t="n">
+      <c r="H41" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K41" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L41" s="31" t="n">
+      <c r="L41" s="30" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="3" t="n">
@@ -2778,36 +2682,36 @@
       <c r="D42" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E42" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="29" t="n">
+      <c r="E42" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H42" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="29" t="n">
+      <c r="H42" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K42" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L42" s="31" t="n">
+      <c r="L42" s="30" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="3" t="n">
@@ -2816,36 +2720,36 @@
       <c r="D43" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E43" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="29" t="n">
+      <c r="E43" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H43" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="29" t="n">
+      <c r="H43" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L43" s="31" t="n">
+      <c r="L43" s="30" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C44" s="3" t="n">
@@ -2854,36 +2758,36 @@
       <c r="D44" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="E44" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="29" t="n">
+      <c r="E44" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H44" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="29" t="n">
+      <c r="H44" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K44" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L44" s="31" t="n">
+      <c r="L44" s="30" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="3" t="n">
@@ -2892,36 +2796,36 @@
       <c r="D45" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E45" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="29" t="n">
+      <c r="E45" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H45" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="29" t="n">
+      <c r="H45" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L45" s="31" t="n">
+      <c r="L45" s="30" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C46" s="3" t="n">
@@ -2930,36 +2834,36 @@
       <c r="D46" s="4" t="n">
         <v>101</v>
       </c>
-      <c r="E46" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="29" t="n">
+      <c r="E46" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H46" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="29" t="n">
+      <c r="H46" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K46" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L46" s="31" t="n">
+      <c r="L46" s="30" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="3" t="n">
@@ -2968,66 +2872,66 @@
       <c r="D47" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="E47" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="29" t="n">
+      <c r="E47" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="28" t="n">
         <v>0</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H47" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="29" t="n">
+      <c r="H47" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="28" t="n">
         <v>0</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L47" s="31" t="n">
+      <c r="L47" s="30" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="36" t="n">
+      <c r="C48" s="35" t="n">
         <v>110011</v>
       </c>
-      <c r="D48" s="42" t="n">
+      <c r="D48" s="41" t="n">
         <v>111</v>
       </c>
-      <c r="E48" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="44" t="n">
+      <c r="E48" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="43" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3055,40 +2959,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="45" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="5.46153846153846"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="49" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="46" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="46" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="5.46153846153846"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="8.35627530364373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1017" min="9" style="46" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1017" min="9" style="2" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1020" min="1018" style="0" width="9"/>
     <col collapsed="false" hidden="false" max="1023" min="1021" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="57" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="52" t="s">
+    <row r="1" s="14" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="46" t="s">
         <v>82</v>
       </c>
       <c r="H1" s="0"/>
@@ -3099,1037 +3003,1037 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="60" t="s">
+      <c r="C2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="48" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="60" t="s">
+      <c r="C3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="48" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="60" t="s">
+      <c r="C4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="48" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="60" t="s">
+      <c r="C5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="48" t="n">
-        <v>10</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="60" t="s">
+      <c r="C6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="48" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="48" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="60" t="s">
+      <c r="C7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="48" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="48" t="n">
+      <c r="C8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E8" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="60" t="s">
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="48" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="48" t="n">
+      <c r="C9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="n">
         <v>101</v>
       </c>
-      <c r="E9" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="60" t="s">
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="48" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="60" t="s">
+      <c r="C10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="48" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="60" t="s">
+      <c r="C11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="48" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="47" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="60" t="s">
+      <c r="C12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="48" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="47" t="n">
-        <v>10</v>
-      </c>
-      <c r="D13" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="49" t="n">
+      <c r="C13" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="F13" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="60" t="s">
+      <c r="F13" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="48" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="63" t="n">
-        <v>10</v>
-      </c>
-      <c r="D14" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="66" t="s">
+      <c r="C14" s="51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="54" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="47" t="n">
-        <v>10</v>
-      </c>
-      <c r="D15" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="60" t="s">
+      <c r="C15" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="48" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="63" t="n">
-        <v>10</v>
-      </c>
-      <c r="D16" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="66" t="s">
+      <c r="C16" s="51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="54" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="47" t="n">
-        <v>10</v>
-      </c>
-      <c r="D17" s="48" t="n">
-        <v>10</v>
-      </c>
-      <c r="E17" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="60" t="s">
+      <c r="C17" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="48" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="63" t="n">
-        <v>10</v>
-      </c>
-      <c r="D18" s="64" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="66" t="s">
+      <c r="C18" s="51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D18" s="52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="54" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="47" t="n">
-        <v>10</v>
-      </c>
-      <c r="D19" s="48" t="n">
+      <c r="C19" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="E19" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="60" t="s">
+      <c r="E19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="48" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="63" t="n">
-        <v>10</v>
-      </c>
-      <c r="D20" s="64" t="n">
+      <c r="C20" s="51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" s="52" t="n">
         <v>11</v>
       </c>
-      <c r="E20" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="66" t="s">
+      <c r="E20" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="54" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="47" t="n">
-        <v>10</v>
-      </c>
-      <c r="D21" s="48" t="n">
+      <c r="C21" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E21" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="60" t="s">
+      <c r="E21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="48" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="63" t="n">
-        <v>10</v>
-      </c>
-      <c r="D22" s="64" t="n">
+      <c r="C22" s="51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" s="52" t="n">
         <v>100</v>
       </c>
-      <c r="E22" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="66" t="s">
+      <c r="E22" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="47" t="n">
-        <v>10</v>
-      </c>
-      <c r="D23" s="48" t="n">
+      <c r="C23" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" s="4" t="n">
         <v>101</v>
       </c>
-      <c r="E23" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="60" t="s">
+      <c r="E23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="48" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="47" t="n">
-        <v>10</v>
-      </c>
-      <c r="D24" s="48" t="n">
+      <c r="C24" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" s="4" t="n">
         <v>101</v>
       </c>
-      <c r="E24" s="49" t="n">
+      <c r="E24" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="F24" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="60" t="s">
+      <c r="F24" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="48" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="63" t="n">
-        <v>10</v>
-      </c>
-      <c r="D25" s="64" t="n">
+      <c r="C25" s="51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" s="52" t="n">
         <v>101</v>
       </c>
-      <c r="E25" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="66" t="s">
+      <c r="E25" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="47" t="n">
-        <v>10</v>
-      </c>
-      <c r="D26" s="48" t="n">
+      <c r="C26" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="E26" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="60" t="s">
+      <c r="E26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="48" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="63" t="n">
-        <v>10</v>
-      </c>
-      <c r="D27" s="64" t="n">
+      <c r="C27" s="51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" s="52" t="n">
         <v>110</v>
       </c>
-      <c r="E27" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="66" t="s">
+      <c r="E27" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="54" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="47" t="n">
-        <v>10</v>
-      </c>
-      <c r="D28" s="48" t="n">
+      <c r="C28" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4" t="n">
         <v>111</v>
       </c>
-      <c r="E28" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="60" t="s">
+      <c r="E28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="48" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="63" t="n">
-        <v>10</v>
-      </c>
-      <c r="D29" s="64" t="n">
+      <c r="C29" s="51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D29" s="52" t="n">
         <v>111</v>
       </c>
-      <c r="E29" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="66" t="s">
+      <c r="E29" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="54" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="47" t="n">
+      <c r="C30" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="D30" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="60" t="s">
+      <c r="D30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="48" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="47" t="n">
+      <c r="C31" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="D31" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="60" t="s">
+      <c r="D31" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="48" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="47" t="n">
+      <c r="C32" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="D32" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="60" t="s">
+      <c r="D32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="48" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="47" t="n">
+      <c r="C33" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="D33" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="60" t="s">
+      <c r="D33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="48" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="47" t="n">
+      <c r="C34" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="D34" s="48" t="n">
-        <v>10</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="60" t="s">
+      <c r="D34" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="48" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="47" t="n">
+      <c r="C35" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="D35" s="48" t="n">
+      <c r="D35" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="E35" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="60" t="s">
+      <c r="E35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="48" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="47" t="n">
+      <c r="C36" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="D36" s="48" t="n">
+      <c r="D36" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E36" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="60" t="s">
+      <c r="E36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="48" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="47" t="n">
+      <c r="C37" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="D37" s="48" t="n">
+      <c r="D37" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E37" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="60" t="s">
+      <c r="E37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="48" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="47" t="n">
+      <c r="C38" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="D38" s="48" t="n">
+      <c r="D38" s="4" t="n">
         <v>101</v>
       </c>
-      <c r="E38" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="60" t="s">
+      <c r="E38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="48" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="47" t="n">
+      <c r="C39" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="D39" s="48" t="n">
+      <c r="D39" s="4" t="n">
         <v>101</v>
       </c>
-      <c r="E39" s="49" t="n">
+      <c r="E39" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="F39" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="60" t="s">
+      <c r="F39" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="48" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="47" t="n">
+      <c r="C40" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="D40" s="48" t="n">
+      <c r="D40" s="4" t="n">
         <v>101</v>
       </c>
-      <c r="E40" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="60" t="s">
+      <c r="E40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="48" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="47" t="n">
+      <c r="C41" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="D41" s="48" t="n">
+      <c r="D41" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="E41" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="60" t="s">
+      <c r="E41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="48" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="47" t="n">
+      <c r="C42" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="D42" s="48" t="n">
+      <c r="D42" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="E42" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="60" t="s">
+      <c r="E42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="48" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="47" t="n">
+      <c r="C43" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="D43" s="48" t="n">
+      <c r="D43" s="4" t="n">
         <v>111</v>
       </c>
-      <c r="E43" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="60" t="s">
+      <c r="E43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="48" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="47" t="n">
+      <c r="C44" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="D44" s="48" t="n">
+      <c r="D44" s="4" t="n">
         <v>111</v>
       </c>
-      <c r="E44" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="59" t="s">
+      <c r="E44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="47" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="60" t="n">
+      <c r="D45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="67" t="s">
+      <c r="A46" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="69" t="s">
+      <c r="C46" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="73" t="n">
+      <c r="D46" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4154,1055 +4058,1055 @@
   </sheetPr>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="45" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="5.46153846153846"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="49" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="47" width="40.3846153846154"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="47" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="46" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="46" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="74" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1016" min="10" style="46" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="5.46153846153846"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="40.7044534412955"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="6.74898785425101"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1016" min="10" style="2" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="57" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="54" t="s">
+    <row r="1" s="14" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="78"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="0"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="20"/>
       <c r="H2" s="0"/>
-      <c r="I2" s="78"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="84" t="n">
+      <c r="C3" s="65" t="n">
         <v>11</v>
       </c>
-      <c r="D3" s="85" t="n">
+      <c r="D3" s="66" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="0"/>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="78" t="s">
+      <c r="H3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="84" t="n">
+      <c r="C4" s="65" t="n">
         <v>11</v>
       </c>
-      <c r="D4" s="85" t="n">
+      <c r="D4" s="66" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="0"/>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="74" t="s">
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="84" t="n">
+      <c r="C5" s="65" t="n">
         <v>11</v>
       </c>
-      <c r="D5" s="85" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" s="47" t="s">
+      <c r="D5" s="66" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="74" t="s">
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="84" t="n">
+      <c r="C6" s="65" t="n">
         <v>11</v>
       </c>
-      <c r="D6" s="85" t="n">
+      <c r="D6" s="66" t="n">
         <v>100</v>
       </c>
       <c r="E6" s="0"/>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="46" t="n">
+      <c r="H6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="84" t="n">
+      <c r="C7" s="65" t="n">
         <v>11</v>
       </c>
-      <c r="D7" s="85" t="n">
+      <c r="D7" s="66" t="n">
         <v>101</v>
       </c>
       <c r="E7" s="0"/>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="46" t="n">
+      <c r="H7" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I7" s="74" t="s">
+      <c r="I7" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="84" t="n">
+      <c r="C8" s="65" t="n">
         <v>10011</v>
       </c>
-      <c r="D8" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="47" t="s">
+      <c r="D8" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="46" t="n">
+      <c r="H8" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="I8" s="74" t="s">
+      <c r="I8" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="84" t="n">
+      <c r="C9" s="65" t="n">
         <v>10011</v>
       </c>
-      <c r="D9" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="47" t="s">
+      <c r="D9" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="31" t="s">
         <v>109</v>
       </c>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="84" t="n">
+      <c r="C10" s="65" t="n">
         <v>10011</v>
       </c>
-      <c r="D10" s="85" t="n">
-        <v>10</v>
-      </c>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="66" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="78" t="s">
+      <c r="H10" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="84" t="n">
+      <c r="C11" s="65" t="n">
         <v>10011</v>
       </c>
-      <c r="D11" s="85" t="n">
+      <c r="D11" s="66" t="n">
         <v>11</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="86" t="s">
+      <c r="F11" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="74" t="s">
+      <c r="H11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="84" t="n">
+      <c r="C12" s="65" t="n">
         <v>10011</v>
       </c>
-      <c r="D12" s="85" t="n">
+      <c r="D12" s="66" t="n">
         <v>100</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="H12" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="74" t="s">
+      <c r="H12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="84" t="n">
+      <c r="C13" s="65" t="n">
         <v>10011</v>
       </c>
-      <c r="D13" s="85" t="n">
+      <c r="D13" s="66" t="n">
         <v>101</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="F13" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="H13" s="46" t="n">
+      <c r="H13" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I13" s="74" t="s">
+      <c r="I13" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="84" t="n">
+      <c r="C14" s="65" t="n">
         <v>10011</v>
       </c>
-      <c r="D14" s="85" t="n">
+      <c r="D14" s="66" t="n">
         <v>101</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="86" t="s">
+      <c r="F14" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="46" t="n">
+      <c r="H14" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I14" s="74" t="s">
+      <c r="I14" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="84" t="n">
+      <c r="C15" s="65" t="n">
         <v>10011</v>
       </c>
-      <c r="D15" s="85" t="n">
+      <c r="D15" s="66" t="n">
         <v>110</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="86" t="s">
+      <c r="F15" s="31" t="s">
         <v>109</v>
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="84" t="n">
+      <c r="C16" s="65" t="n">
         <v>10011</v>
       </c>
-      <c r="D16" s="85" t="n">
+      <c r="D16" s="66" t="n">
         <v>111</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="86" t="s">
+      <c r="F16" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="78" t="s">
+      <c r="H16" s="15" t="s">
         <v>38</v>
       </c>
       <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="84" t="n">
+      <c r="C17" s="65" t="n">
         <v>10111</v>
       </c>
-      <c r="D17" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="47" t="s">
+      <c r="D17" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="86" t="s">
+      <c r="F17" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="74" t="s">
+      <c r="H17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="84" t="n">
+      <c r="C18" s="65" t="n">
         <v>100011</v>
       </c>
-      <c r="D18" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="87" t="s">
+      <c r="D18" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="86" t="s">
+      <c r="F18" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="H18" s="46" t="n">
+      <c r="H18" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I18" s="74" t="s">
+      <c r="I18" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="84" t="n">
+      <c r="C19" s="65" t="n">
         <v>100011</v>
       </c>
-      <c r="D19" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="47" t="s">
+      <c r="D19" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="86" t="s">
+      <c r="F19" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="74" t="s">
+      <c r="H19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="84" t="n">
+      <c r="C20" s="65" t="n">
         <v>100011</v>
       </c>
-      <c r="D20" s="85" t="n">
-        <v>10</v>
-      </c>
-      <c r="E20" s="47" t="s">
+      <c r="D20" s="66" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="86" t="s">
+      <c r="F20" s="31" t="s">
         <v>109</v>
       </c>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="84" t="n">
+      <c r="C21" s="65" t="n">
         <v>110011</v>
       </c>
-      <c r="D21" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="86" t="s">
+      <c r="D21" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="31" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="84" t="n">
+      <c r="C22" s="65" t="n">
         <v>110011</v>
       </c>
-      <c r="D22" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="46" t="s">
+      <c r="D22" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I22" s="74" t="s">
+      <c r="I22" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="84" t="n">
+      <c r="C23" s="65" t="n">
         <v>110011</v>
       </c>
-      <c r="D23" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="86" t="s">
+      <c r="D23" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="84" t="n">
+      <c r="C24" s="65" t="n">
         <v>110011</v>
       </c>
-      <c r="D24" s="85" t="n">
-        <v>10</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="86" t="s">
+      <c r="D24" s="66" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="84" t="n">
+      <c r="C25" s="65" t="n">
         <v>110011</v>
       </c>
-      <c r="D25" s="85" t="n">
+      <c r="D25" s="66" t="n">
         <v>11</v>
       </c>
-      <c r="E25" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="86" t="s">
+      <c r="E25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="84" t="n">
+      <c r="C26" s="65" t="n">
         <v>110011</v>
       </c>
-      <c r="D26" s="85" t="n">
+      <c r="D26" s="66" t="n">
         <v>100</v>
       </c>
-      <c r="E26" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="86" t="s">
+      <c r="E26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="84" t="n">
+      <c r="C27" s="65" t="n">
         <v>110011</v>
       </c>
-      <c r="D27" s="85" t="n">
+      <c r="D27" s="66" t="n">
         <v>101</v>
       </c>
-      <c r="E27" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="86" t="s">
+      <c r="E27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="84" t="n">
+      <c r="C28" s="65" t="n">
         <v>110011</v>
       </c>
-      <c r="D28" s="85" t="n">
+      <c r="D28" s="66" t="n">
         <v>101</v>
       </c>
-      <c r="E28" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="86" t="s">
+      <c r="E28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="84" t="n">
+      <c r="C29" s="65" t="n">
         <v>110011</v>
       </c>
-      <c r="D29" s="85" t="n">
+      <c r="D29" s="66" t="n">
         <v>110</v>
       </c>
-      <c r="E29" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="86" t="s">
+      <c r="E29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="84" t="n">
+      <c r="C30" s="65" t="n">
         <v>110011</v>
       </c>
-      <c r="D30" s="85" t="n">
+      <c r="D30" s="66" t="n">
         <v>111</v>
       </c>
-      <c r="E30" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="86" t="s">
+      <c r="E30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="84" t="n">
+      <c r="C31" s="65" t="n">
         <v>110111</v>
       </c>
-      <c r="D31" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="47" t="s">
+      <c r="D31" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="86" t="s">
+      <c r="F31" s="31" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="84" t="n">
+      <c r="C32" s="65" t="n">
         <v>1100011</v>
       </c>
-      <c r="D32" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="47" t="s">
+      <c r="D32" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F32" s="86" t="s">
+      <c r="F32" s="31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="84" t="n">
+      <c r="C33" s="65" t="n">
         <v>1100011</v>
       </c>
-      <c r="D33" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="47" t="s">
+      <c r="D33" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="86" t="s">
+      <c r="F33" s="31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="84" t="n">
+      <c r="C34" s="65" t="n">
         <v>1100011</v>
       </c>
-      <c r="D34" s="85" t="n">
+      <c r="D34" s="66" t="n">
         <v>100</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="86" t="s">
+      <c r="F34" s="31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="84" t="n">
+      <c r="C35" s="65" t="n">
         <v>1100011</v>
       </c>
-      <c r="D35" s="85" t="n">
+      <c r="D35" s="66" t="n">
         <v>101</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="86" t="s">
+      <c r="F35" s="31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="84" t="n">
+      <c r="C36" s="65" t="n">
         <v>1100011</v>
       </c>
-      <c r="D36" s="85" t="n">
+      <c r="D36" s="66" t="n">
         <v>110</v>
       </c>
-      <c r="E36" s="47" t="s">
+      <c r="E36" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F36" s="86" t="s">
+      <c r="F36" s="31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="84" t="n">
+      <c r="C37" s="65" t="n">
         <v>1100011</v>
       </c>
-      <c r="D37" s="85" t="n">
+      <c r="D37" s="66" t="n">
         <v>111</v>
       </c>
-      <c r="E37" s="47" t="s">
+      <c r="E37" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F37" s="86" t="s">
+      <c r="F37" s="31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="84" t="n">
+      <c r="C38" s="65" t="n">
         <v>1100111</v>
       </c>
-      <c r="D38" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="47" t="s">
+      <c r="D38" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F38" s="86" t="s">
+      <c r="F38" s="31" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="71" t="n">
+      <c r="C39" s="56" t="n">
         <v>1101111</v>
       </c>
-      <c r="D39" s="88" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="69" t="s">
+      <c r="D39" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="F39" s="89" t="s">
+      <c r="F39" s="38" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="91"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="85"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="66"/>
       <c r="E40" s="0"/>
-      <c r="F40" s="86"/>
+      <c r="F40" s="31"/>
     </row>
     <row r="41" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="84" t="n">
+      <c r="C41" s="65" t="n">
         <v>110011</v>
       </c>
-      <c r="D41" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="86" t="s">
+      <c r="D41" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="84" t="n">
+      <c r="C42" s="65" t="n">
         <v>110011</v>
       </c>
-      <c r="D42" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="86" t="s">
+      <c r="D42" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="84" t="n">
+      <c r="C43" s="65" t="n">
         <v>110011</v>
       </c>
-      <c r="D43" s="85" t="n">
-        <v>10</v>
-      </c>
-      <c r="E43" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="86" t="s">
+      <c r="D43" s="66" t="n">
+        <v>10</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="84" t="n">
+      <c r="C44" s="65" t="n">
         <v>110011</v>
       </c>
-      <c r="D44" s="85" t="n">
+      <c r="D44" s="66" t="n">
         <v>11</v>
       </c>
-      <c r="E44" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="86" t="s">
+      <c r="E44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="84" t="n">
+      <c r="C45" s="65" t="n">
         <v>110011</v>
       </c>
-      <c r="D45" s="85" t="n">
+      <c r="D45" s="66" t="n">
         <v>100</v>
       </c>
-      <c r="E45" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="86" t="s">
+      <c r="E45" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="84" t="n">
+      <c r="C46" s="65" t="n">
         <v>110011</v>
       </c>
-      <c r="D46" s="85" t="n">
+      <c r="D46" s="66" t="n">
         <v>101</v>
       </c>
-      <c r="E46" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="86" t="s">
+      <c r="E46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="58" t="s">
+      <c r="A47" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="84" t="n">
+      <c r="C47" s="65" t="n">
         <v>110011</v>
       </c>
-      <c r="D47" s="85" t="n">
+      <c r="D47" s="66" t="n">
         <v>110</v>
       </c>
-      <c r="E47" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="86" t="s">
+      <c r="E47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="67" t="s">
+      <c r="A48" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="68" t="s">
+      <c r="B48" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="71" t="n">
+      <c r="C48" s="56" t="n">
         <v>110011</v>
       </c>
-      <c r="D48" s="88" t="n">
+      <c r="D48" s="68" t="n">
         <v>111</v>
       </c>
-      <c r="E48" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="89" t="s">
+      <c r="E48" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5230,371 +5134,371 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="93" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="5.46153846153846"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="9"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="46" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="47" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="46" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="47" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="74" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1017" min="11" style="46" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="70" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="5.46153846153846"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="9"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="6.74898785425101"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1017" min="11" style="2" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="57" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="53" t="s">
+    <row r="1" s="14" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="78"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="98" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="99" t="s">
+      <c r="C2" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="100" t="s">
+      <c r="G2" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="76" t="s">
         <v>130</v>
       </c>
       <c r="J2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="99" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="74" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="103" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="103" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="99" t="s">
+      <c r="C4" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="74" t="s">
+      <c r="G4" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="101"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="99" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="104" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" s="74" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="80" t="n">
+        <v>10</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="103" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="103" t="n">
+      <c r="C6" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="79" t="n">
         <v>100</v>
       </c>
-      <c r="E6" s="102" t="s">
+      <c r="E6" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="99" t="s">
+      <c r="F6" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="104" t="n">
+      <c r="G6" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="80" t="n">
         <v>11</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="101"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="99" t="s">
+      <c r="A7" s="77"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="G7" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="104"/>
+      <c r="G7" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="80"/>
     </row>
     <row r="8" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="103" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="103" t="n">
+      <c r="C8" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="79" t="n">
         <v>101</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="99" t="s">
+      <c r="F8" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="G8" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="104"/>
+      <c r="G8" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="80"/>
     </row>
     <row r="9" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="101"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="99" t="s">
+      <c r="A9" s="77"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="G9" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="104"/>
+      <c r="G9" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="80"/>
     </row>
     <row r="10" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="103" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="103" t="n">
+      <c r="C10" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="79" t="n">
         <v>110</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="99" t="s">
+      <c r="F10" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="104"/>
+      <c r="G10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="80"/>
     </row>
     <row r="11" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="101"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="99" t="s">
+      <c r="A11" s="77"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="G11" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="104"/>
+      <c r="G11" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="80"/>
     </row>
     <row r="12" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="103" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="103" t="n">
+      <c r="C12" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="79" t="n">
         <v>111</v>
       </c>
-      <c r="E12" s="102" t="s">
+      <c r="E12" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="99" t="s">
+      <c r="F12" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="104"/>
+      <c r="G12" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="80"/>
     </row>
     <row r="13" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="101"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="99" t="s">
+      <c r="A13" s="77"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="104"/>
+      <c r="G13" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="80"/>
     </row>
     <row r="14" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="48" t="n">
-        <v>10</v>
-      </c>
-      <c r="D14" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="46" t="s">
+      <c r="C14" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="99" t="s">
+      <c r="F14" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="86" t="n">
-        <v>10</v>
-      </c>
-      <c r="I14" s="104"/>
+      <c r="G14" s="31" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" s="80"/>
     </row>
     <row r="15" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="103" t="n">
+      <c r="C15" s="79" t="n">
         <v>11</v>
       </c>
-      <c r="D15" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="102" t="s">
+      <c r="D15" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="99" t="s">
+      <c r="F15" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="104"/>
+      <c r="G15" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="80"/>
     </row>
     <row r="16" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="70" t="s">
+      <c r="C16" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="104"/>
+      <c r="G16" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="28">

--- a/Laboratorio_3/Tabela-verdade_Controle_RISCV.xlsx
+++ b/Laboratorio_3/Tabela-verdade_Controle_RISCV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luthiery\Desktop\Quartus_files\OAC\TrabalhosOAC\Laboratorio_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4045F417-3AE1-4E39-9869-809FD1A5AA8A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{75880AC9-D06A-494E-9A36-4D21A20902E0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="116">
   <si>
     <t>Instrução</t>
   </si>
@@ -800,6 +800,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -807,15 +816,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1203,7 +1203,7 @@
   <dimension ref="A1:AMH48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1918,8 +1918,8 @@
       <c r="K17" s="5">
         <v>0</v>
       </c>
-      <c r="L17" s="31" t="s">
-        <v>15</v>
+      <c r="L17" s="31">
+        <v>0</v>
       </c>
       <c r="N17" s="2">
         <v>1</v>
@@ -2474,8 +2474,8 @@
       <c r="K31" s="5">
         <v>0</v>
       </c>
-      <c r="L31" s="30">
-        <v>1</v>
+      <c r="L31" s="30" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="16.350000000000001" customHeight="1">
@@ -2774,8 +2774,8 @@
       <c r="K39" s="36">
         <v>11</v>
       </c>
-      <c r="L39" s="38" t="s">
-        <v>15</v>
+      <c r="L39" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="16.350000000000001" customHeight="1">
@@ -3113,7 +3113,7 @@
   <dimension ref="A1:AMB1048574"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4112,16 +4112,16 @@
       <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="78">
-        <v>1</v>
-      </c>
-      <c r="D2" s="78">
+      <c r="C2" s="75">
+        <v>1</v>
+      </c>
+      <c r="D2" s="75">
         <v>0</v>
       </c>
       <c r="E2" s="2">
@@ -4139,10 +4139,10 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="2">
         <v>1</v>
       </c>
@@ -4160,16 +4160,16 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="75">
-        <v>1</v>
-      </c>
-      <c r="D4" s="75">
+      <c r="C4" s="78">
+        <v>1</v>
+      </c>
+      <c r="D4" s="78">
         <v>1</v>
       </c>
       <c r="E4" s="2">
@@ -4189,10 +4189,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
       <c r="E5" s="2">
         <v>1</v>
       </c>
@@ -4210,19 +4210,19 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="75">
-        <v>1</v>
-      </c>
-      <c r="D6" s="75">
+      <c r="C6" s="78">
+        <v>1</v>
+      </c>
+      <c r="D6" s="78">
         <v>100</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="77" t="s">
         <v>102</v>
       </c>
       <c r="F6" s="53" t="s">
@@ -4239,11 +4239,11 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A7" s="73"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="74"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="53" t="s">
         <v>110</v>
       </c>
@@ -4253,19 +4253,19 @@
       <c r="I7" s="62"/>
     </row>
     <row r="8" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="75">
-        <v>1</v>
-      </c>
-      <c r="D8" s="75">
+      <c r="C8" s="78">
+        <v>1</v>
+      </c>
+      <c r="D8" s="78">
         <v>101</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="77" t="s">
         <v>102</v>
       </c>
       <c r="F8" s="53" t="s">
@@ -4277,11 +4277,11 @@
       <c r="I8" s="62"/>
     </row>
     <row r="9" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="74"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="77"/>
       <c r="F9" s="53" t="s">
         <v>110</v>
       </c>
@@ -4291,19 +4291,19 @@
       <c r="I9" s="62"/>
     </row>
     <row r="10" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="75">
-        <v>1</v>
-      </c>
-      <c r="D10" s="75">
+      <c r="C10" s="78">
+        <v>1</v>
+      </c>
+      <c r="D10" s="78">
         <v>110</v>
       </c>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="77" t="s">
         <v>102</v>
       </c>
       <c r="F10" s="53" t="s">
@@ -4315,11 +4315,11 @@
       <c r="I10" s="62"/>
     </row>
     <row r="11" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="74"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="53" t="s">
         <v>110</v>
       </c>
@@ -4329,19 +4329,19 @@
       <c r="I11" s="62"/>
     </row>
     <row r="12" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="75">
-        <v>1</v>
-      </c>
-      <c r="D12" s="75">
+      <c r="C12" s="78">
+        <v>1</v>
+      </c>
+      <c r="D12" s="78">
         <v>111</v>
       </c>
-      <c r="E12" s="74" t="s">
+      <c r="E12" s="77" t="s">
         <v>102</v>
       </c>
       <c r="F12" s="53" t="s">
@@ -4353,11 +4353,11 @@
       <c r="I12" s="62"/>
     </row>
     <row r="13" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A13" s="73"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="74"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="53" t="s">
         <v>110</v>
       </c>
@@ -4440,6 +4440,26 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -4448,26 +4468,6 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
